--- a/national-savings-bond/ProzeBond database schema.xlsx
+++ b/national-savings-bond/ProzeBond database schema.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asadkamran\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5122A29B-7104-4778-B12A-E194862070DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27021E21-EF83-4B65-ACE8-EC46327CCB2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>TABLES</t>
   </si>
@@ -129,9 +123,6 @@
   </si>
   <si>
     <t>bond_schedule</t>
-  </si>
-  <si>
-    <t>bond_type__id</t>
   </si>
   <si>
     <t>schedule_date</t>
@@ -164,8 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,10 +237,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,7 +278,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Index">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAC40C2-7809-4F53-BB66-238702D5CE97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FAC40C2-7809-4F53-BB66-238702D5CE97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -299,7 +290,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -319,7 +310,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -376,7 +367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -428,7 +419,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -622,21 +613,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE28641-BBEB-4B7A-9E5B-E9EFA10C4E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
@@ -645,17 +636,17 @@
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -672,7 +663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -689,9 +680,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
@@ -706,9 +697,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -723,9 +714,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -740,9 +731,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -752,9 +743,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -763,18 +754,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
@@ -782,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
@@ -790,12 +781,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
@@ -806,7 +797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
@@ -817,40 +808,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:9">
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:9">
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:9">
       <c r="E19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="5:9">
       <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
@@ -861,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:9">
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
@@ -872,7 +863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:9">
       <c r="G22" s="2" t="s">
         <v>12</v>
       </c>
@@ -880,34 +871,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:9">
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:9">
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:9">
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:9">
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:9">
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:9">
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:9">
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:9">
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:9">
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:9">
       <c r="I32" s="2"/>
     </row>
   </sheetData>
